--- a/templates/QARSF/RSTK-9520-Refurb Work Order.xlsx
+++ b/templates/QARSF/RSTK-9520-Refurb Work Order.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24326"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24430"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\provar\rsqasampleproj\rsqasampleproj\templates\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\provar\rsqasampleproj\rsqasampleproj\templates\QARSF\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{34118A9E-87CE-4B7F-B089-A6D4B7E43E77}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C8F9B79-C7A2-4890-9758-C1F03785D29B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="2" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Create WO" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="421" uniqueCount="98">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="301" uniqueCount="101">
   <si>
     <t>Site</t>
   </si>
@@ -327,6 +327,15 @@
   </si>
   <si>
     <t>8/16/2025</t>
+  </si>
+  <si>
+    <t>Subcontract Lead Time</t>
+  </si>
+  <si>
+    <t>Allow Accept Flag?</t>
+  </si>
+  <si>
+    <t>Pro-child5</t>
   </si>
 </sst>
 </file>
@@ -670,17 +679,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K6"/>
+  <dimension ref="A1:K5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:XFD2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="10.33203125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="38" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.88671875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="31.77734375" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="6.44140625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="25.6640625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="17.33203125" bestFit="1" customWidth="1"/>
@@ -734,10 +743,9 @@
       <c r="B2" t="s">
         <v>91</v>
       </c>
-      <c r="C2" s="2">
+      <c r="C2">
         <v>5</v>
       </c>
-      <c r="D2" s="2"/>
       <c r="E2" t="s">
         <v>7</v>
       </c>
@@ -756,9 +764,9 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>94</v>
-      </c>
-      <c r="C3" s="2">
+        <v>95</v>
+      </c>
+      <c r="C3">
         <v>5</v>
       </c>
       <c r="E3" t="s">
@@ -771,7 +779,7 @@
         <v>0</v>
       </c>
       <c r="H3" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.3">
@@ -779,9 +787,9 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>95</v>
-      </c>
-      <c r="C4" s="2">
+        <v>96</v>
+      </c>
+      <c r="C4">
         <v>5</v>
       </c>
       <c r="E4" t="s">
@@ -791,10 +799,10 @@
         <v>8</v>
       </c>
       <c r="G4" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H4" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.3">
@@ -802,9 +810,9 @@
         <v>2</v>
       </c>
       <c r="B5" t="s">
-        <v>96</v>
-      </c>
-      <c r="C5" s="2">
+        <v>94</v>
+      </c>
+      <c r="C5">
         <v>5</v>
       </c>
       <c r="E5" t="s">
@@ -814,33 +822,10 @@
         <v>8</v>
       </c>
       <c r="G5" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H5" t="b">
         <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
-        <v>2</v>
-      </c>
-      <c r="B6" t="s">
-        <v>91</v>
-      </c>
-      <c r="C6">
-        <v>5</v>
-      </c>
-      <c r="E6" t="s">
-        <v>7</v>
-      </c>
-      <c r="F6" t="s">
-        <v>8</v>
-      </c>
-      <c r="G6" t="b">
-        <v>1</v>
-      </c>
-      <c r="H6" t="b">
-        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -852,15 +837,15 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E4118D1B-4664-40C2-B0BA-D00B0B607D20}">
-  <dimension ref="A1:B7"/>
+  <dimension ref="A1:B11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B19" sqref="B19"/>
+      <selection activeCell="A9" sqref="A9:XFD9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="31.77734375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="36.77734375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="27.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -906,18 +891,50 @@
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B6" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
+        <v>94</v>
+      </c>
+      <c r="B7" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>95</v>
+      </c>
+      <c r="B8" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
         <v>96</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B9" t="s">
         <v>88</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>96</v>
+      </c>
+      <c r="B10" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>96</v>
+      </c>
+      <c r="B11" t="s">
+        <v>100</v>
       </c>
     </row>
   </sheetData>
@@ -927,10 +944,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{106A5DC5-11A9-463E-B813-87CC78B959DE}">
-  <dimension ref="A1:I9"/>
+  <dimension ref="A1:I3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -976,7 +993,7 @@
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B2" t="s">
         <v>57</v>
@@ -999,7 +1016,7 @@
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B3" t="s">
         <v>60</v>
@@ -1017,144 +1034,6 @@
         <v>2</v>
       </c>
       <c r="I3" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
-        <v>94</v>
-      </c>
-      <c r="B4" t="s">
-        <v>57</v>
-      </c>
-      <c r="D4" t="b">
-        <v>1</v>
-      </c>
-      <c r="F4">
-        <v>10</v>
-      </c>
-      <c r="G4">
-        <v>1E-3</v>
-      </c>
-      <c r="H4">
-        <v>5</v>
-      </c>
-      <c r="I4" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
-        <v>94</v>
-      </c>
-      <c r="B5" t="s">
-        <v>60</v>
-      </c>
-      <c r="E5" t="b">
-        <v>1</v>
-      </c>
-      <c r="F5">
-        <v>1</v>
-      </c>
-      <c r="G5">
-        <v>0.3</v>
-      </c>
-      <c r="H5">
-        <v>2</v>
-      </c>
-      <c r="I5" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
-        <v>95</v>
-      </c>
-      <c r="B6" t="s">
-        <v>57</v>
-      </c>
-      <c r="D6" t="b">
-        <v>1</v>
-      </c>
-      <c r="F6">
-        <v>10</v>
-      </c>
-      <c r="G6">
-        <v>1E-3</v>
-      </c>
-      <c r="H6">
-        <v>5</v>
-      </c>
-      <c r="I6" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
-        <v>95</v>
-      </c>
-      <c r="B7" t="s">
-        <v>60</v>
-      </c>
-      <c r="E7" t="b">
-        <v>1</v>
-      </c>
-      <c r="F7">
-        <v>1</v>
-      </c>
-      <c r="G7">
-        <v>0.3</v>
-      </c>
-      <c r="H7">
-        <v>2</v>
-      </c>
-      <c r="I7" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A8" t="s">
-        <v>91</v>
-      </c>
-      <c r="B8" t="s">
-        <v>57</v>
-      </c>
-      <c r="D8" t="b">
-        <v>1</v>
-      </c>
-      <c r="F8">
-        <v>10</v>
-      </c>
-      <c r="G8">
-        <v>1E-3</v>
-      </c>
-      <c r="H8">
-        <v>5</v>
-      </c>
-      <c r="I8" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A9" t="s">
-        <v>91</v>
-      </c>
-      <c r="B9" t="s">
-        <v>60</v>
-      </c>
-      <c r="E9" t="b">
-        <v>1</v>
-      </c>
-      <c r="F9">
-        <v>1</v>
-      </c>
-      <c r="G9">
-        <v>0.3</v>
-      </c>
-      <c r="H9">
-        <v>2</v>
-      </c>
-      <c r="I9" t="s">
         <v>59</v>
       </c>
     </row>
@@ -1166,15 +1045,15 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4F645892-6DEC-48BA-AEFF-9DA397370813}">
-  <dimension ref="A1:Q13"/>
+  <dimension ref="A1:S4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A11" sqref="A11:XFD11"/>
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="38" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="36.77734375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="17" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="16.33203125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="10.21875" bestFit="1" customWidth="1"/>
@@ -1191,9 +1070,11 @@
     <col min="15" max="15" width="12.33203125" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="15.109375" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="21.109375" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="15.5546875" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="16.21875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>3</v>
       </c>
@@ -1245,8 +1126,14 @@
       <c r="Q1" t="s">
         <v>77</v>
       </c>
-    </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="R1" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="S1" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>94</v>
       </c>
@@ -1296,7 +1183,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>94</v>
       </c>
@@ -1346,7 +1233,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>94</v>
       </c>
@@ -1393,456 +1280,6 @@
         <v>78</v>
       </c>
       <c r="Q4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
-        <v>95</v>
-      </c>
-      <c r="B5" t="s">
-        <v>79</v>
-      </c>
-      <c r="C5">
-        <v>10</v>
-      </c>
-      <c r="D5" t="s">
-        <v>84</v>
-      </c>
-      <c r="E5" t="s">
-        <v>81</v>
-      </c>
-      <c r="F5" t="s">
-        <v>82</v>
-      </c>
-      <c r="G5" t="s">
-        <v>83</v>
-      </c>
-      <c r="I5" t="s">
-        <v>73</v>
-      </c>
-      <c r="J5" t="s">
-        <v>74</v>
-      </c>
-      <c r="K5">
-        <v>1</v>
-      </c>
-      <c r="L5" t="s">
-        <v>73</v>
-      </c>
-      <c r="M5" t="s">
-        <v>74</v>
-      </c>
-      <c r="N5">
-        <v>1</v>
-      </c>
-      <c r="O5" t="s">
-        <v>73</v>
-      </c>
-      <c r="P5" t="s">
-        <v>78</v>
-      </c>
-      <c r="Q5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
-        <v>95</v>
-      </c>
-      <c r="B6" t="s">
-        <v>79</v>
-      </c>
-      <c r="C6">
-        <v>20</v>
-      </c>
-      <c r="D6" t="s">
-        <v>85</v>
-      </c>
-      <c r="E6" t="s">
-        <v>81</v>
-      </c>
-      <c r="F6" t="s">
-        <v>82</v>
-      </c>
-      <c r="G6" t="s">
-        <v>83</v>
-      </c>
-      <c r="I6" t="s">
-        <v>73</v>
-      </c>
-      <c r="J6" t="s">
-        <v>74</v>
-      </c>
-      <c r="K6">
-        <v>1</v>
-      </c>
-      <c r="L6" t="s">
-        <v>73</v>
-      </c>
-      <c r="M6" t="s">
-        <v>74</v>
-      </c>
-      <c r="N6">
-        <v>1</v>
-      </c>
-      <c r="O6" t="s">
-        <v>73</v>
-      </c>
-      <c r="P6" t="s">
-        <v>78</v>
-      </c>
-      <c r="Q6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
-        <v>95</v>
-      </c>
-      <c r="B7" t="s">
-        <v>79</v>
-      </c>
-      <c r="C7">
-        <v>30</v>
-      </c>
-      <c r="D7" t="s">
-        <v>86</v>
-      </c>
-      <c r="E7" t="s">
-        <v>81</v>
-      </c>
-      <c r="F7" t="s">
-        <v>82</v>
-      </c>
-      <c r="G7" t="s">
-        <v>83</v>
-      </c>
-      <c r="I7" t="s">
-        <v>73</v>
-      </c>
-      <c r="J7" t="s">
-        <v>74</v>
-      </c>
-      <c r="K7">
-        <v>1</v>
-      </c>
-      <c r="L7" t="s">
-        <v>73</v>
-      </c>
-      <c r="M7" t="s">
-        <v>74</v>
-      </c>
-      <c r="N7">
-        <v>1</v>
-      </c>
-      <c r="O7" t="s">
-        <v>73</v>
-      </c>
-      <c r="P7" t="s">
-        <v>78</v>
-      </c>
-      <c r="Q7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A8" t="s">
-        <v>96</v>
-      </c>
-      <c r="B8" t="s">
-        <v>79</v>
-      </c>
-      <c r="C8">
-        <v>10</v>
-      </c>
-      <c r="D8" t="s">
-        <v>84</v>
-      </c>
-      <c r="E8" t="s">
-        <v>81</v>
-      </c>
-      <c r="F8" t="s">
-        <v>82</v>
-      </c>
-      <c r="G8" t="s">
-        <v>83</v>
-      </c>
-      <c r="I8" t="s">
-        <v>73</v>
-      </c>
-      <c r="J8" t="s">
-        <v>74</v>
-      </c>
-      <c r="K8">
-        <v>1</v>
-      </c>
-      <c r="L8" t="s">
-        <v>73</v>
-      </c>
-      <c r="M8" t="s">
-        <v>74</v>
-      </c>
-      <c r="N8">
-        <v>1</v>
-      </c>
-      <c r="O8" t="s">
-        <v>73</v>
-      </c>
-      <c r="P8" t="s">
-        <v>78</v>
-      </c>
-      <c r="Q8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A9" t="s">
-        <v>96</v>
-      </c>
-      <c r="B9" t="s">
-        <v>79</v>
-      </c>
-      <c r="C9">
-        <v>20</v>
-      </c>
-      <c r="D9" t="s">
-        <v>85</v>
-      </c>
-      <c r="E9" t="s">
-        <v>81</v>
-      </c>
-      <c r="F9" t="s">
-        <v>82</v>
-      </c>
-      <c r="G9" t="s">
-        <v>83</v>
-      </c>
-      <c r="I9" t="s">
-        <v>73</v>
-      </c>
-      <c r="J9" t="s">
-        <v>74</v>
-      </c>
-      <c r="K9">
-        <v>1</v>
-      </c>
-      <c r="L9" t="s">
-        <v>73</v>
-      </c>
-      <c r="M9" t="s">
-        <v>74</v>
-      </c>
-      <c r="N9">
-        <v>1</v>
-      </c>
-      <c r="O9" t="s">
-        <v>73</v>
-      </c>
-      <c r="P9" t="s">
-        <v>78</v>
-      </c>
-      <c r="Q9">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A10" t="s">
-        <v>96</v>
-      </c>
-      <c r="B10" t="s">
-        <v>79</v>
-      </c>
-      <c r="C10">
-        <v>30</v>
-      </c>
-      <c r="D10" t="s">
-        <v>86</v>
-      </c>
-      <c r="E10" t="s">
-        <v>81</v>
-      </c>
-      <c r="F10" t="s">
-        <v>82</v>
-      </c>
-      <c r="G10" t="s">
-        <v>83</v>
-      </c>
-      <c r="I10" t="s">
-        <v>73</v>
-      </c>
-      <c r="J10" t="s">
-        <v>74</v>
-      </c>
-      <c r="K10">
-        <v>1</v>
-      </c>
-      <c r="L10" t="s">
-        <v>73</v>
-      </c>
-      <c r="M10" t="s">
-        <v>74</v>
-      </c>
-      <c r="N10">
-        <v>1</v>
-      </c>
-      <c r="O10" t="s">
-        <v>73</v>
-      </c>
-      <c r="P10" t="s">
-        <v>78</v>
-      </c>
-      <c r="Q10">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A11" t="s">
-        <v>91</v>
-      </c>
-      <c r="B11" t="s">
-        <v>79</v>
-      </c>
-      <c r="C11">
-        <v>10</v>
-      </c>
-      <c r="D11" t="s">
-        <v>84</v>
-      </c>
-      <c r="E11" t="s">
-        <v>81</v>
-      </c>
-      <c r="F11" t="s">
-        <v>82</v>
-      </c>
-      <c r="G11" t="s">
-        <v>83</v>
-      </c>
-      <c r="I11" t="s">
-        <v>73</v>
-      </c>
-      <c r="J11" t="s">
-        <v>74</v>
-      </c>
-      <c r="K11">
-        <v>1</v>
-      </c>
-      <c r="L11" t="s">
-        <v>73</v>
-      </c>
-      <c r="M11" t="s">
-        <v>74</v>
-      </c>
-      <c r="N11">
-        <v>1</v>
-      </c>
-      <c r="O11" t="s">
-        <v>73</v>
-      </c>
-      <c r="P11" t="s">
-        <v>78</v>
-      </c>
-      <c r="Q11">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A12" t="s">
-        <v>91</v>
-      </c>
-      <c r="B12" t="s">
-        <v>79</v>
-      </c>
-      <c r="C12">
-        <v>20</v>
-      </c>
-      <c r="D12" t="s">
-        <v>85</v>
-      </c>
-      <c r="E12" t="s">
-        <v>81</v>
-      </c>
-      <c r="F12" t="s">
-        <v>82</v>
-      </c>
-      <c r="G12" t="s">
-        <v>83</v>
-      </c>
-      <c r="I12" t="s">
-        <v>73</v>
-      </c>
-      <c r="J12" t="s">
-        <v>74</v>
-      </c>
-      <c r="K12">
-        <v>1</v>
-      </c>
-      <c r="L12" t="s">
-        <v>73</v>
-      </c>
-      <c r="M12" t="s">
-        <v>74</v>
-      </c>
-      <c r="N12">
-        <v>1</v>
-      </c>
-      <c r="O12" t="s">
-        <v>73</v>
-      </c>
-      <c r="P12" t="s">
-        <v>78</v>
-      </c>
-      <c r="Q12">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A13" t="s">
-        <v>91</v>
-      </c>
-      <c r="B13" t="s">
-        <v>79</v>
-      </c>
-      <c r="C13">
-        <v>30</v>
-      </c>
-      <c r="D13" t="s">
-        <v>86</v>
-      </c>
-      <c r="E13" t="s">
-        <v>81</v>
-      </c>
-      <c r="F13" t="s">
-        <v>82</v>
-      </c>
-      <c r="G13" t="s">
-        <v>83</v>
-      </c>
-      <c r="I13" t="s">
-        <v>73</v>
-      </c>
-      <c r="J13" t="s">
-        <v>74</v>
-      </c>
-      <c r="K13">
-        <v>1</v>
-      </c>
-      <c r="L13" t="s">
-        <v>73</v>
-      </c>
-      <c r="M13" t="s">
-        <v>74</v>
-      </c>
-      <c r="N13">
-        <v>1</v>
-      </c>
-      <c r="O13" t="s">
-        <v>73</v>
-      </c>
-      <c r="P13" t="s">
-        <v>78</v>
-      </c>
-      <c r="Q13">
         <v>1</v>
       </c>
     </row>
@@ -2377,7 +1814,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{52F4B46C-917D-4769-9EED-CC4369AB85E4}">
   <dimension ref="A1:J6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView topLeftCell="D1" workbookViewId="0">
       <selection activeCell="H3" sqref="H3:H6"/>
     </sheetView>
   </sheetViews>
